--- a/flashcards/Memcode - VU Strafrecht I - 1. Klausur - Vertiefend (JKU, Austria).xlsx
+++ b/flashcards/Memcode - VU Strafrecht I - 1. Klausur - Vertiefend (JKU, Austria).xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>Question</t>
   </si>
@@ -19,16 +19,22 @@
     <t>Answer</t>
   </si>
   <si>
+    <t>&lt;p&gt;Aus welchen Schuldelementen besteht die &lt;strong style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;Fahrlässigkeits&lt;/strong&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;schuld&lt;/span&gt;?&lt;/p&gt;&lt;p&gt;Welche sind notwendig für Schuld?&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ol&gt;&lt;li&gt;&lt;strong&gt;Schuldfähigkeit&lt;/strong&gt;&lt;/li&gt;&lt;li&gt;aktuelles oder potentielles &lt;strong&gt;Unrechtsbewusstsein&lt;/strong&gt;&lt;/li&gt;&lt;li&gt;subjektive &lt;strong&gt;Fahrlässigkeitselemente &lt;/strong&gt;&lt;/li&gt;&lt;li class="ql-indent-1"&gt;subjektive &lt;strong&gt;Sorgfaltswidrigkeit&lt;/strong&gt; &lt;strong&gt;der Handlung&lt;/strong&gt;&lt;/li&gt;&lt;li class="ql-indent-1"&gt;subjektive &lt;strong&gt;Voraussehbarkeit&lt;/strong&gt; &lt;strong&gt;des Erfolgs&lt;/strong&gt;&lt;/li&gt;&lt;li&gt;&lt;strong&gt;Zumutbarkeit &lt;/strong&gt;des sorgfaltsgemäßen Verhaltens&lt;/li&gt;&lt;/ol&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="color: rgb(226, 148, 20); background-color: rgb(40, 45, 88);"&gt;Alle Schuldelemente&lt;/span&gt;&lt;span style="color: rgb(238, 236, 246); background-color: rgb(40, 45, 88);"&gt; müssen zur Zeit der Tat vorhanden sein, sonst handelt der Täter ohne Schuld.&lt;/span&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;Aus welchen Schuldelementen besteht die&lt;/span&gt; Schuld beim &lt;strong&gt;versuchten Delikt&lt;/strong&gt;? &lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ol&gt;&lt;li&gt;&lt;strong&gt;Schuldfähigkeit&lt;/strong&gt;&lt;/li&gt;&lt;li&gt;&lt;strong&gt;Besondere Schuldmerkmale &lt;/strong&gt;(falls gesetzlich vorgesehen)&lt;/li&gt;&lt;li&gt;&lt;strong&gt;Unrechtsbewusstsein&lt;/strong&gt; bzw. &lt;strong&gt;Verbotsirrtum &lt;/strong&gt;&lt;/li&gt;&lt;li&gt;&lt;strong&gt;keine Entschuldigungsgründe &lt;/strong&gt;bzw. &lt;strong&gt;Irrtum über entschuldigenden Sachverhalt&lt;/strong&gt;&lt;/li&gt;&lt;/ol&gt;</t>
+  </si>
+  <si>
     <t>&lt;p&gt;Wie hängen Schuld- und Handlungs&lt;strong&gt;unfähigkeit&lt;/strong&gt; zusammen?&lt;/p&gt;&lt;p&gt;Was ist für den Täter besser?&lt;/p&gt;</t>
   </si>
   <si>
     <t>&lt;ul&gt;&lt;li&gt;Schuld kann in Handlungsunfähigkeit übergehen (z.B. tiefgreifende Bewusstseinsstörung wird zu Bewusstlosigkeit)&lt;/li&gt;&lt;li&gt;&lt;strong&gt;Handlungsunfähigkeit &lt;/strong&gt;ist besser, nicht einmal vorbeugende Maßnahmen sind möglich. &lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Aus welchen Schuldelementen besteht die &lt;strong style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;Fahrlässigkeits&lt;/strong&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;schuld&lt;/span&gt;?&lt;/p&gt;&lt;p&gt;Welche sind notwendig für Schuld?&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;ol&gt;&lt;li&gt;&lt;strong&gt;Schuldfähigkeit&lt;/strong&gt;&lt;/li&gt;&lt;li&gt;aktuelles oder potentielles &lt;strong&gt;Unrechtsbewusstsein&lt;/strong&gt;&lt;/li&gt;&lt;li&gt;subjektive &lt;strong&gt;Fahrlässigkeitselemente &lt;/strong&gt;&lt;/li&gt;&lt;li class="ql-indent-1"&gt;subjektive &lt;strong&gt;Sorgfaltswidrigkeit&lt;/strong&gt; &lt;strong&gt;der Handlung&lt;/strong&gt;&lt;/li&gt;&lt;li class="ql-indent-1"&gt;subjektive &lt;strong&gt;Voraussehbarkeit&lt;/strong&gt; &lt;strong&gt;des Erfolgs&lt;/strong&gt;&lt;/li&gt;&lt;li&gt;&lt;strong&gt;Zumutbarkeit &lt;/strong&gt;des sorgfaltsgemäßen Verhaltens&lt;/li&gt;&lt;/ol&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;&lt;p&gt;&lt;span style="color: rgb(226, 148, 20); background-color: rgb(40, 45, 88);"&gt;Alle Schuldelemente&lt;/span&gt;&lt;span style="color: rgb(238, 236, 246); background-color: rgb(40, 45, 88);"&gt; müssen zur Zeit der Tat vorhanden sein, sonst handelt der Täter ohne Schuld.&lt;/span&gt;&lt;/p&gt;</t>
   </si>
   <si>
     <t>&lt;p&gt;Aus welchen Schuldelementen besteht die &lt;strong&gt;Vorsatz&lt;/strong&gt;schuld?&lt;/p&gt;&lt;p&gt;Welche sind notwendig für Schuld?&lt;/p&gt;</t>
@@ -580,7 +586,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B31"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="2" width="20" customWidth="1"/>
@@ -826,6 +832,14 @@
         <v>59</v>
       </c>
     </row>
+    <row r="31" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>

--- a/flashcards/Memcode - VU Strafrecht I - 1. Klausur - Vertiefend (JKU, Austria).xlsx
+++ b/flashcards/Memcode - VU Strafrecht I - 1. Klausur - Vertiefend (JKU, Austria).xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="156">
   <si>
     <t>Question</t>
   </si>
@@ -19,6 +19,246 @@
     <t>Answer</t>
   </si>
   <si>
+    <t>&lt;p&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;Was sind die 3 Voraussetzungen für den Rücktritt vom &lt;/span&gt;&lt;span style="color: rgb(56, 190, 155); background-color: rgb(40, 45, 88);"&gt;beendeten &lt;/span&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;Versuch?&lt;/span&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;&lt;strong&gt;Abwendung&lt;/strong&gt; des Erfolgs:&lt;/li&gt;&lt;li class="ql-indent-1"&gt;Strenge Anforderung: Erfolg muss &lt;strong&gt;tatsächlich &lt;/strong&gt;abgewendet werden.&lt;/li&gt;&lt;li&gt;&lt;strong&gt;Freiwilligkeit&lt;/strong&gt;:&lt;/li&gt;&lt;li class="ql-indent-1"&gt;&lt;strong style="color: rgb(56, 190, 155); background-color: rgb(40, 45, 88);"&gt;Frank&lt;/strong&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;'sche und&lt;/span&gt;&lt;span style="color: rgb(56, 190, 155); background-color: rgb(40, 45, 88);"&gt; &lt;/span&gt;&lt;strong style="color: rgb(56, 190, 155); background-color: rgb(40, 45, 88);"&gt;Roxin&lt;/strong&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;'sche Formel &lt;/span&gt;&lt;/li&gt;&lt;li&gt;&lt;strong&gt;eigenes Zutun &lt;/strong&gt;des Täters:&lt;/li&gt;&lt;li class="ql-indent-1"&gt;&lt;strong&gt;aktives&lt;/strong&gt; Gegensteuern durch gefahrneutralisierendes Handeln&lt;/li&gt;&lt;li class="ql-indent-1"&gt;passiv oder versehen &lt;strong&gt;reicht nicht&lt;/strong&gt;!&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Erfolg tritt trotz freiwilligem Rücktritt ein &lt;/p&gt;&lt;ul&gt;&lt;li&gt;Welche Folgen kann es geben?&lt;/li&gt;&lt;li&gt;Wie ist dieser Fall zu beurteilen?&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Straflos wegen Rücktritt oder Strafbar wegen vollendetem Delikt&lt;/li&gt;&lt;li&gt;Maßgeblich ist, ob der &lt;strong&gt;Eintritt des Erfolgs&lt;/strong&gt; nach Adäquanz- und Risikozusammmehang noch &lt;strong&gt;objektiv zugeordnet &lt;/strong&gt;werden kann&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was sind die 2 Voraussetzungen für den Rücktritt vom &lt;strong&gt;unbeendeten &lt;/strong&gt;Versuch?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;&lt;strong&gt;Endgültige &lt;/strong&gt;Aufgabe der Tatausführung: &lt;/li&gt;&lt;li class="ql-indent-1"&gt;Abbruch durch bloßes &lt;strong&gt;Nichtweiterhandeln &lt;/strong&gt;genügt&lt;/li&gt;&lt;li class="ql-indent-1"&gt;endgültig: Täter &lt;strong&gt;verzichtet&lt;/strong&gt; auf &lt;strong&gt;weitere Ausführung&lt;/strong&gt;, bloße Unterbrechung reicht nicht&lt;/li&gt;&lt;li&gt;&lt;strong&gt;Freiwilligkeit&lt;/strong&gt;:&lt;/li&gt;&lt;li class="ql-indent-1"&gt;&lt;strong&gt;Frank&lt;/strong&gt;'sche und&lt;strong&gt; Roxin&lt;/strong&gt;'sche Formel (oft deckungsgleich, aber gut beide zur Gegenkontrolle zu verwenden) &lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Wann ist ein Versuch beendet, wann nicht?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Der Versuch ist beendet, wenn der &lt;strong&gt;Täter glaubt&lt;/strong&gt;, alles zur &lt;strong&gt;Vollendung&lt;/strong&gt; der Tat &lt;strong&gt;Erforderliche&lt;/strong&gt; &lt;strong&gt;getan&lt;/strong&gt; zu haben. &lt;/li&gt;&lt;li&gt;Glaubt er dagegen, noch &lt;strong&gt;weiterhandeln &lt;/strong&gt;zu müssen, ist der Versuch &lt;strong&gt;unbeendet&lt;/strong&gt;&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Welche Kriterien muss die Notstands&lt;strong&gt;handlung&lt;/strong&gt; erfüllen?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;strong&gt;Notwendig &lt;/strong&gt;und&lt;strong&gt; geeignet &lt;/strong&gt;zur Abwendung des Nachteils.&lt;/p&gt;&lt;p&gt;Sie muss aber &lt;strong&gt;nicht&lt;/strong&gt; das einzige oder mildeste Mittel sein.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was ist die Folge von Handlungen ohne aktuellem und potenziellem Unrechtsbewusstsein?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Schuld entfällt&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was ist potenzielles Unrechtsbewusstsein?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;&lt;strong&gt;Vorwerfbarer Mangel &lt;/strong&gt;des Unrechtsbewusstseins&lt;/li&gt;&lt;li&gt;Der Täter &lt;strong&gt;erkennt &lt;/strong&gt;das &lt;strong&gt;Unrecht&lt;/strong&gt; der Tat &lt;strong&gt;nicht&lt;/strong&gt;, wäre aber &lt;strong&gt;verpflichtet &lt;/strong&gt;gewesen sich danach &lt;strong&gt;zu erkundigen&lt;/strong&gt;.&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;Was ist aktuelles Unrechtsbewusstsein?&lt;/span&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Zur Zeit der tat &lt;strong&gt;wirklich vorhandenes &lt;/strong&gt;Unrechtsbewusstsein.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was ist die &lt;strong&gt;partielle &lt;/strong&gt;Schuld&lt;strong&gt;unfähigkeit&lt;/strong&gt;?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Schuldunfähigkeit trifft nur &lt;strong&gt;Teile des Unrechts&lt;/strong&gt;, d.h. § 11 wird n&lt;strong&gt;ur für manche Delikte&lt;/strong&gt; angewandt.&lt;/li&gt;&lt;li&gt;z.B.: Schuldunfähig für krankheitsspezifische Straftaten, für alles andere aber voll Schuldfähig&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was ist die &lt;strong&gt;verminderte &lt;/strong&gt;Schuld&lt;strong&gt;fähigkeit&lt;/strong&gt;?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Vermindert Schuldfähige werden als &lt;strong&gt;schuldfähig behandelt&lt;/strong&gt;, es ist aber ein &lt;strong&gt;Milderungsgrund &lt;/strong&gt;für die Strafbemessung.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was sind &lt;strong&gt;besondere Schuldmerkmale&lt;/strong&gt;?&lt;/p&gt;&lt;p&gt;Was welche sind dies in der Regel?&lt;/p&gt;&lt;p&gt;In welche 2 Arten wird unterschieden?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;&lt;strong&gt;schuldspezifische Umstände&lt;/strong&gt;, deren Vorliegen die &lt;strong&gt;Strafbarkeit herabsetzt&lt;/strong&gt; oder &lt;strong&gt;ausnahmsweise &lt;/strong&gt;erhöht.&lt;/li&gt;&lt;li&gt;idR situativ bedingte Gemütsverfassungen/zustände&lt;/li&gt;&lt;li&gt;Arten:&lt;/li&gt;&lt;li class="ql-indent-1"&gt;&lt;strong&gt;objektivierte &lt;/strong&gt;Schuldmerkmale: schuldmindernde Gemütsverfassung wird &lt;strong&gt;ex lege unwiderleglich vermutet &lt;/strong&gt;(z.B.: "während der Geburt")   &lt;/li&gt;&lt;li class="ql-indent-1"&gt;&lt;strong&gt;subjektive &lt;/strong&gt;Schuldmerkmale: &lt;strong&gt;motivierende Wirkung &lt;/strong&gt;der besonderen Gemütsverfassung &lt;strong&gt;auf &lt;/strong&gt;die &lt;strong&gt;Willensbildung &lt;/strong&gt;muss &lt;strong&gt;in concreto nachgewiesen &lt;/strong&gt;werden &lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was ist der &lt;strong&gt;objektive &lt;/strong&gt;Schuldmaßstab? &lt;/p&gt;&lt;p&gt;Wann hat der Täter dementsprechend schuldig gehandelt?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Maßstab der Schuld ist der &lt;strong&gt;maßgerechte Mensch in der Situation des Täters &lt;/strong&gt;(nicht die individuelle "Dafürkönnen" des Täters)&lt;/li&gt;&lt;li&gt;Der Täter hat schuldhaft gehandelt, wenn ein anderer in der Lage des Täters nach allgemeiner Erfahrung der Tatversuchung widerstanden hätte.&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was ist das &lt;strong&gt;subjektive Rechtsfertigungselement &lt;/strong&gt;der &lt;strong&gt;mutmaßlichen Einwilligung&lt;/strong&gt;? &lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Wissen von &lt;strong&gt;Nichterreichbarkeit &lt;/strong&gt;des Rechtsgutsträgers&lt;/li&gt;&lt;li&gt;&lt;strong&gt;Überzeugung&lt;/strong&gt;, dass dieser in der &lt;strong&gt;konkreten Situation&lt;/strong&gt; &lt;strong&gt;eingewilligt &lt;/strong&gt;hätte.&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was sind die Grenzen der &lt;strong&gt;mutmaßlichen Einwilligungshandlung&lt;/strong&gt;?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Muss sich in den &lt;strong&gt;Grenzen &lt;/strong&gt;dessen halten, was der Rechtsgutsträger &lt;strong&gt;gewollt hätte&lt;/strong&gt;.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was sind die 2 Voraussetzungen für die &lt;strong&gt;mutmaßliche Einwilligungssituation&lt;/strong&gt;?&lt;/p&gt;&lt;p&gt;Was passiert bei Irrtum über die Einwilligungssituation? &lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;&lt;strong&gt;Einwilligung&lt;/strong&gt; des Rechtsgutsträgers ist &lt;strong&gt;nicht erreichbar&lt;/strong&gt;&lt;/li&gt;&lt;li&gt;&lt;strong&gt;Hypothetischer Wille&lt;/strong&gt;: Hätte der Rechtsgutsträger in dieser Situation den willen erteilt? &lt;/li&gt;&lt;li class="ql-indent-1"&gt;Anhand von objektiven Indizien aus der Sicht ex ante (vorher) zu ermitteln.&lt;/li&gt;&lt;li&gt;&lt;strong&gt;Irrtum &lt;/strong&gt;über hypothetischen Willen gem § 8 auf Fahrlässigkeit zu beurteilen.&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was ist das subjektive Rechtfertigungselement für die Einwilligung?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Der Täter muss &lt;strong&gt;aufgrund oder zumindest in Kenntnis der Einwilligung&lt;/strong&gt; des Betroffenen gehandelt haben.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Wie muss die &lt;strong&gt;Einwilligungshandlung &lt;/strong&gt;gestaltet sein?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Sie muss sich im Rahmen dessen halten, was der &lt;strong&gt;Rechtsgutsträger gewollt und erklärt hat&lt;/strong&gt;. Überschreitung → Handlungsexzess&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Benötigt die &lt;strong&gt;Dispositionsfähigkeit&lt;/strong&gt; die Geschäftsfähigkeit?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Nein, maßgeblich ist die &lt;strong&gt;natürliche Einsichts&lt;/strong&gt;- &lt;strong&gt;und Urteilsfähigkeit&lt;/strong&gt;.&lt;/li&gt;&lt;li&gt;z.B.: Einwilligung eines voll einsichtsfähigen Minderjährigen geht idR über die des gesetzlichen Vertreters.&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Welche Anforderungen gibt es an die Einwilligung als &lt;strong&gt;Willenserklärung&lt;/strong&gt;?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;ausdrücklich oder konkludent&lt;/li&gt;&lt;li&gt;muss nach außen hin in Erscheinung treten&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Bezieht sich die Einwilligung auf die Handlung oder den Erfolg?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Auf den Erfolg&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was ist das subjektive Rechtfertigungselement in der Selbsthilfesituation?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Kenntnis der Selbsthilfesituation&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Kann körperliche Gewalt bei der Selbsthilfe eingesetzt werden?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;&lt;strong&gt;Vorsätzliche &lt;/strong&gt;Körperverletzung  (§ 83 (1) oder §§ 84f ) &lt;strong&gt;unzulässig &lt;/strong&gt;&lt;/li&gt;&lt;li&gt;Körperliche Misshandlungen (§ 83 (2) )bzw. &lt;strong&gt;fahrlässige&lt;/strong&gt; &lt;strong&gt;leichte &lt;/strong&gt;Körperverletzung gerechtfertigt.&lt;/li&gt;&lt;li&gt;Gegenwehr des Kontrahenten kann aber Notwehr oder Nothilfe rechtfertigen. &lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was bedeutet die unbedingte Notwendigkeit bei der Selbsthilfehandlung?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Das schonendste Mittel&lt;/li&gt;&lt;li&gt;In Betracht kommen Identitätsfeststellung, einfache Drohungen, Festhalten, Ergreifen des Anspruchsgegenstands, ...&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was sind die 2 Voraussetzungen für die Selbsthilfe&lt;strong&gt;situation&lt;/strong&gt;?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Bestehen eines &lt;strong&gt;privatrechtlichen Anspruchs&lt;/strong&gt;&lt;/li&gt;&lt;li&gt;Staatliche Hilfe kam &lt;strong&gt;zu spät&lt;/strong&gt;&lt;/li&gt;&lt;li class="ql-indent-1"&gt;keine rechtzeitige Hilfe durch inländische Behörde/Organe (Gericht, Polizei, ...)&lt;/li&gt;&lt;li class="ql-indent-1"&gt;es besteht also Gefahr, dass die Sicherung des Anspruchs vereitelt oder wesentlich erschwert wird.&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was ist das &lt;strong&gt;subjektive Rechtfertigungselement &lt;/strong&gt;für die &lt;strong&gt;Anhaltedauer&lt;/strong&gt;?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;strong&gt;Kenntnis der Anhaltesituation&lt;/strong&gt; genügt&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Wie wird die &lt;strong&gt;Anhaltedauer&lt;/strong&gt; begrenzt?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;&lt;strong&gt;Wegall des Tatverdachts&lt;/strong&gt; (bei oder während der Festnahme) → Anhaltesituation entfällt und Anhaltung ist aufzuheben &lt;/li&gt;&lt;li&gt;&lt;strong&gt;Unverzügliche Anzeige&lt;/strong&gt;: Anhaltung muss unverzüglich dem nächst erreichbaren Sicherheitsorgan angezeigt werden.&lt;/li&gt;&lt;li class="ql-indent-1"&gt;Wer die Anzeige verzögert oder unterlässt ist eventuell gem § 99 oder § 105 strafbar. &lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was ist eine strafbare Handlung im Sinne der Anhaltesituation?&lt;/p&gt;&lt;p&gt;Ist die Schuld(fähigkeit) relevant?&lt;/p&gt;&lt;p&gt;Wann entfällt das Anhalterecht?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Eine mit &lt;strong&gt;gerichtlicher Strafe bedrohte&lt;/strong&gt; &lt;strong&gt;Handlung&lt;/strong&gt;, auch Fahrlässigkeitsdelikte oder Bagatellstraftaten.&lt;/li&gt;&lt;li&gt;&lt;strong&gt;Schuld ist irrelevant&lt;/strong&gt;, es können auch Kinder, Jugendliche und Unzurechnungsfähige angehalten werden&lt;/li&gt;&lt;li&gt;Anhalterecht entfällt wenn die Strafdrohung entfällt (durch RFG gerechtfertigte Taten, strafbefreiender Rücktritt, ... )&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was ist die Anhaltesituation?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Verdacht der &lt;strong&gt;gegenwärtigen &lt;/strong&gt;oder &lt;strong&gt;unmittelbar&lt;/strong&gt; &lt;strong&gt;vorherigen Ausführung &lt;/strong&gt;einer strafbaren Handlung oder &lt;strong&gt;Fahndung &lt;/strong&gt;wegen einer solchen&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was sind die zwei Arten des Verbotsirtums?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;&lt;strong&gt;direkter &lt;/strong&gt;Verbotsirrtum: Täter &lt;strong&gt;erkennt nicht&lt;/strong&gt;, dass seine Tat verboten/unrecht ist&lt;/li&gt;&lt;li&gt;&lt;strong&gt;indirekter &lt;/strong&gt;Verbotsirrtum: Täter &lt;strong&gt;irrt über&lt;/strong&gt; Existenz/Grenzen eines &lt;strong&gt;Rechtfertigungsgrundes &lt;/strong&gt;-&amp;gt; er weiß, dass die Tat verboten ist, denkt aber sie er darf sie ausnahmsweise begehen&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was ist dolus generalis?&lt;/p&gt;&lt;p&gt;Was ist die herrschende Ansicht dazu?&lt;/p&gt;&lt;p&gt;Welche Arten gibt es, und wie wirken Sie sich auf die Strafbarkeit aus?&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Die ganze Tat umfassender "genereller Vorsatz"&lt;/li&gt;&lt;li&gt;Heute überholt, hA sieht einen &lt;strong&gt;Sonderfall des Irrtums über den Kausalverlauf &lt;/strong&gt;&lt;/li&gt;&lt;li&gt;Folgen (bei Änderung des Kausalverlaufs):&lt;/li&gt;&lt;li class="ql-indent-1"&gt;bei &lt;strong&gt;unwesentlicher &lt;/strong&gt;Änderung: Strafbarkeit für das &lt;strong&gt;vollendete Delikt.&lt;/strong&gt;&lt;/li&gt;&lt;li class="ql-indent-2"&gt;z.B.: Täter wirft vermeintlich bereits getötetes Opfer in Fluss, Tod tritt erst durch Ertrinken ein. → Vollendeter Mord.&lt;/li&gt;&lt;li class="ql-indent-1"&gt;bei &lt;strong&gt;wesentlicher &lt;/strong&gt;Änderung: Strafbarkeit wegen &lt;strong&gt;Versuchs&lt;/strong&gt;&lt;/li&gt;&lt;li class="ql-indent-2"&gt;z.B.: Vermeintlich bereits getötetes Opfer ist im Kofferraum und stirbt erst durch Auffahrunfall → versuchter Mord.&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was sind &lt;strong&gt;geschriebene &lt;/strong&gt;und &lt;strong&gt;ungeschriebene &lt;/strong&gt;Tatbestandsmerkmale&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;&lt;strong&gt;Geschriebene Tatbestandsmerkmale&lt;/strong&gt;: der Großteil der Merkmale ist &lt;strong&gt;ausdrücklich &lt;/strong&gt;im&lt;strong&gt; Gesetz festgelegt&lt;/strong&gt;&lt;/li&gt;&lt;li&gt;Bei einer Reihe von Delikten kommen aber auch &lt;strong&gt;ungeschriebene Tatbestandsmerkmale&lt;/strong&gt; vor.&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Wie werden Körperreflexe für die Ausschlussfunktion abgegrenzt?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;&lt;strong&gt;Fehlreaktionen eines Kraftfahrers &lt;/strong&gt;der von plötzlicher Gefahr überrascht wird, sind in den meisten Fällen vom Willen beherrschbar und erfüllen daher den strafrechtlichen Handlungsbegriff (auch Fehlreaktionen innerhalb der sog. Reaktionszeit)&lt;/li&gt;&lt;li&gt;&lt;strong&gt;Automatisierte Handlungen&lt;/strong&gt; sind eintrainierte Verhaltensweisen, bei denen der Wille nicht jedes mal aktiv eingeschalten wird, die Willensaktivierung kann aber jederzeit erfolgen. Deshalb erfüllen Sie den strafrechtlichen Handlungsbegriff. Z.B.: Schalten, Bremsen&lt;/li&gt;&lt;li&gt;&lt;strong&gt;Impulsive Handlungen&lt;/strong&gt; kommen zwar unter Umgehung der Tathemmungsmechanismen, nicht aber unter Ausschaltung des Willens zu stande, und erfüllen daher den &lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;strafrechtlichen Handlungsbegriff. Z.B.: Affekt- und Kurzschlussreaktionen&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was ist die Vorrausetzung für die Wirkung eines Rechtfertigungsgrundes?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Sämtliche Merkmale des RFG müssen erfüllt sein.&lt;/li&gt;&lt;li&gt;Die Handlung bleibt unrecht/strafbar, wenn die Grenzen des RFg überschritten werden. &lt;/li&gt;&lt;li&gt;RFG wirkt nur &lt;strong&gt;ad personam&lt;/strong&gt; (persönlich), d.h. bei mehreren Beteiligten einer Tat ist nur derjenige gerechtfertigt, der in seiner Person alle Merkmale des RFG erfüllt.&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Wofür werden &lt;strong&gt;Erfolgs&lt;/strong&gt;-, &lt;strong&gt;Handlungs&lt;/strong&gt;- und &lt;strong&gt;Gesinnungsunwert &lt;/strong&gt;verwendet? &lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Für die Strafzumessung und Diversion&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was ist der &lt;strong style="color: rgb(226, 148, 20); background-color: rgba(0, 0, 0, 0);"&gt;Gesinnungsunwert&lt;/strong&gt;?&lt;/p&gt;&lt;p&gt;&lt;span style="background-color: rgb(40, 45, 88);"&gt;Welche weiteren Eigenschaften gehören zum &lt;/span&gt;&lt;span style="background-color: rgba(0, 0, 0, 0); color: rgb(226, 148, 20);"&gt;Gesinnungsunwert&lt;/span&gt;&lt;span style="background-color: rgb(40, 45, 88);"&gt;?&lt;/span&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Der in der Tat zum Ausdruck kommende &lt;strong&gt;Schuldgehalt&lt;/strong&gt;&lt;/li&gt;&lt;li&gt;Insbesondere die &lt;strong&gt;Art&lt;/strong&gt; und &lt;strong&gt;Maß &lt;/strong&gt;der durch die Tat dokumentierten &lt;strong&gt;rechtsfeindlichen Einstellung &lt;/strong&gt;und &lt;strong&gt;kriminellen Energie &lt;/strong&gt;(vorsätzliche Tötung [Mord] vs fahrlässige Tötung)&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was ist der &lt;strong&gt;Handlungsunwert&lt;/strong&gt;?&lt;/p&gt;&lt;p&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;Welche weiteren Eigenschaften gehören zum Handlungsunwert?&lt;/span&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Wird durch die &lt;strong&gt;Art &lt;/strong&gt;und &lt;strong&gt;Weise &lt;/strong&gt;der &lt;strong&gt;Tatbegehung &lt;/strong&gt;bestimmt (Wie wurde die Tat begangen)&lt;/li&gt;&lt;li&gt;Dazu gehören auch personale Komponenten (Wer hat die Tat begangen)&lt;/li&gt;&lt;li&gt;Steigt mit Intensität bzw. Brutalität der angewendeten Gewalt, sowie Schwere der eingesetzten Drohung&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was ist der &lt;strong&gt;Erfolgsunwert&lt;/strong&gt;?&lt;/p&gt;&lt;p&gt;Welche weiteren &lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;Eigenschaften &lt;/span&gt;gehören zum Erfolgsunwert?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Besteht in der Verletzung/Gefährdung des Rechtsguts (Tatobjekts). &lt;/li&gt;&lt;li&gt;Grad und Schwere der Verletzung und Höhe des Schadens gehören zum Erfolgsunwert&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was ist das Fallprüfungsschema für den Tatbestand des Versuchs?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;&lt;strong&gt;Nichterfüllung des gesetzlichen Tatbildes&lt;/strong&gt;: es dürfen nicht sämtliche objektiven Tatbestandmerkmale erfüllt sein&lt;/li&gt;&lt;li&gt;&lt;strong&gt;Voller Tatentschluss&lt;/strong&gt;: Täter muss mit vollem Tatentschluss handeln (meist identisch mit Tatvorsatz)&lt;/li&gt;&lt;li&gt;&lt;strong&gt;Ausführungshandlung bzw. ausführungsnahe Handlung&lt;/strong&gt;: sonst bloße Vorbereitungshandlung.&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was ist die &lt;strong&gt;Rettungsabsicht &lt;/strong&gt;beim entschuldigenden Notstand?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Der Notstand &lt;strong&gt;setzt&lt;/strong&gt; &lt;strong&gt;Rettungsabsicht &lt;/strong&gt;("um abzuwenden") &lt;strong&gt;voraus &lt;/strong&gt;(Es reicht aus über eine Notstandssituation zu wissen, man muss rettend handeln), sonst bleibt es bei Bestrafung für vorsätzliche Tat&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was ist die Notstands&lt;strong&gt;situation&lt;/strong&gt;?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Unmittelbar drohender Nachteil für Individualrechtsgüter des Notstandstäters oder eines Dritten&lt;/p&gt;&lt;p&gt;Siehe &lt;a href="https://www.jusline.at/gesetz/stgb/paragraf/10" rel="noopener noreferrer" target="_blank" style="background-color: rgb(40, 45, 88); color: rgb(170, 160, 247);"&gt;§ 10 (1) StGB&lt;/a&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
     <t>&lt;p&gt;Aus welchen Schuldelementen besteht die &lt;strong style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;Fahrlässigkeits&lt;/strong&gt;&lt;span style="background-color: rgb(40, 45, 88); color: rgb(238, 236, 246);"&gt;schuld&lt;/span&gt;?&lt;/p&gt;&lt;p&gt;Welche sind notwendig für Schuld?&lt;/p&gt;&lt;p&gt;&lt;br&gt;&lt;/p&gt;</t>
   </si>
   <si>
@@ -53,6 +293,48 @@
   </si>
   <si>
     <t>&lt;ul&gt;&lt;li&gt;&lt;strong&gt;Dispositionsbefugnis&lt;/strong&gt;: der Rechtsgutsträger selbst oder ein von diesem zur Disposition Ermächtigter.&lt;/li&gt;&lt;li&gt;&lt;strong&gt;Dispositionsfähigkeit&lt;/strong&gt;: Der Einwilligende muss nach seiner &lt;strong&gt;geistigen &lt;/strong&gt;und &lt;strong&gt;sittlichen Reife &lt;/strong&gt;in der Lage sein, &lt;strong&gt;Bedeutung&lt;/strong&gt; und &lt;strong&gt;Tragweite&lt;/strong&gt; der &lt;strong&gt;Rechtsguteinbuße &lt;/strong&gt;und des &lt;strong&gt;Rechtsschutzverzichts &lt;/strong&gt;zu erkennen und&lt;strong&gt; sachgerecht &lt;/strong&gt;zu &lt;strong&gt;beurteilen&lt;/strong&gt;&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was ist der absolut untaugliche Versuch?&lt;/p&gt;&lt;p&gt;Was ist die Rechtsfolge?&lt;/p&gt;&lt;p&gt;Beispiele?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;&lt;strong&gt;Vollendung &lt;/strong&gt;der Tat nach Tatplan gemäß Eindruckstheorie unmöglich&lt;/li&gt;&lt;li&gt;Folge: Straflosigkeit&lt;/li&gt;&lt;li&gt;z.B.: "tot-beten", Kind mit Kamillentee abtreiben wollen, ...&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Unterscheidet das StGB zwischen tauglichen und untauglichen Versuchen?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Nein, nur die wissenschaftliche Systematik unterscheidet&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was ist die Eindruckstheorie für den untauglichen Versuch?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Ein Versuch ist &lt;strong&gt;absolut untauglich&lt;/strong&gt;, wenn aus der Sicht eines &lt;strong style="color: rgb(56, 190, 155); background-color: rgb(40, 45, 88);"&gt;verständigenden begleitenden Beobachters&lt;/strong&gt;&lt;span style="color: rgb(56, 190, 155); background-color: rgb(40, 45, 88);"&gt; die Verwirklichung des Tatplans&lt;/span&gt;&lt;strong style="color: rgb(56, 190, 155); background-color: rgb(40, 45, 88);"&gt; unter keinen Umständen&lt;/strong&gt;&lt;span style="color: rgb(56, 190, 155); background-color: rgb(40, 45, 88);"&gt; zur Vollendung der Tat führen kann.&lt;/span&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Sind untaugliche Versuche strafwürdig?&lt;/p&gt;&lt;p&gt;Worauf basiert diese Annahme? &lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Nach der &lt;strong&gt;Eindruckstheorie &lt;/strong&gt;ist jeder Versuch &lt;strong&gt;strafwürdig&lt;/strong&gt;.&lt;/li&gt;&lt;li&gt;&lt;strong&gt;Ausgenommen &lt;/strong&gt;ist nur der &lt;strong&gt;absolut&lt;/strong&gt; untaugliche Versuch&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was sind die drei Ursachen für die Untauglichkeit des Versuchs?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Untauglichkeit des &lt;strong&gt;Subjekts (&lt;/strong&gt;straflos weil unmöglich&lt;strong&gt;)&lt;/strong&gt;&lt;/li&gt;&lt;li class="ql-indent-1"&gt;z.B.: Eheschließung eines Verheirateten, der vom Tod seiner ersten Frau noch nichts weiß&lt;/li&gt;&lt;li&gt;Untauglichkeit des &lt;strong&gt;Objekts&lt;/strong&gt;&lt;/li&gt;&lt;li class="ql-indent-1"&gt;z.B.: Griff des Diebes in die leere Jackentasche&lt;/li&gt;&lt;li class="ql-indent-1"&gt;z.B.: Schuss auf einen scheinbar Schlafenden, der aber schon tot ist.&lt;/li&gt;&lt;li&gt;Untauglichkeit der &lt;strong&gt;Handlung&lt;/strong&gt;: meist &lt;strong&gt;untaugliches Mittel&lt;/strong&gt;&lt;/li&gt;&lt;li class="ql-indent-1"&gt;z.B.: Mordwaffe schießt nicht weit genug&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was ist ein qualifizierter Versuch? &lt;/p&gt;&lt;p&gt;Was ist die Folge hinsichtlich Rücktritt?&lt;/p&gt;&lt;p&gt;Beispiele?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Ein Versuch, in dem ein &lt;strong&gt;vollendetes Delikt enthalten &lt;/strong&gt;ist&lt;/li&gt;&lt;li&gt;Das im Versuch &lt;strong&gt;enthaltene Delikt &lt;/strong&gt;bleibt vom Rücktritt unberührt und daher &lt;strong&gt;strafbar&lt;/strong&gt;.&lt;/li&gt;&lt;li&gt;z.B.: Rücktritt von versuchtem Mord: Bestrafung wegen Körperverletzung&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Was ist ein fehlgeschlagener Versuch?&lt;/p&gt;&lt;p&gt;Was sind die Rechtsfolgen?&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;Versuch ist fehlgeschlagen, wenn der Täter &lt;strong&gt;erkennt oder&lt;/strong&gt; &lt;strong&gt;glaubt&lt;/strong&gt;, dass sein er &lt;strong&gt;Ziel nicht mehr erreichen&lt;/strong&gt; kann (oder einen neuen Versuch bentigt)&lt;/li&gt;&lt;li&gt;Folgen:&lt;/li&gt;&lt;li class="ql-indent-1"&gt;kein Rücktritt oder Putativrücktritt möglich&lt;/li&gt;&lt;li class="ql-indent-1"&gt;also VOR Rücktritt zu prüfen.&lt;/li&gt;&lt;/ul&gt;</t>
   </si>
   <si>
     <t>&lt;p&gt;Was sind die 3 &lt;strong&gt;sachlichen &lt;/strong&gt;Voraussetzungen für die &lt;strong&gt;Einwilligungssituation&lt;/strong&gt;?&lt;/p&gt;</t>
@@ -586,7 +868,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:B78"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="2" width="20" customWidth="1"/>
@@ -840,6 +1122,382 @@
         <v>61</v>
       </c>
     </row>
+    <row r="32" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
